--- a/Process Results/Unified_IBNP_MS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_MS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8217347691149118</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1480119805194816</v>
+        <v>0.9083904746403016</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.09017410441895078</v>
+        <v>0.1620464460718041</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.09017410441895078</v>
+        <v>0.1620464460718041</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8217347691149118</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5568496634016329</v>
+        <v>0.9083904746403016</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5737779075488904</v>
+        <v>0.6096500339622035</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5737779075488904</v>
+        <v>0.6096500339622035</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6294069891323228</v>
+        <v>0.9519199955798663</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.707162585394653</v>
+        <v>0.6901633686067012</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.707162585394653</v>
+        <v>0.6901633686067012</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6877692462321935</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7403569036586483</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7403569036586483</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6877692462321935</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7487255874670744</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7487255874670744</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7100418729406113</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7544147809190932</v>
+        <v>0.8512369815921914</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7544147809190932</v>
+        <v>0.8512369815921914</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8713318815165255</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8713318815165255</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.964157622414764</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7461780757837254</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8718680485110205</v>
+        <v>0.8753167689959469</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8718680485110205</v>
+        <v>0.8753167689959469</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4155,17 +4155,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4193,17 +4193,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4231,17 +4231,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4269,17 +4269,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4840,16 +4840,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v/>
+        <v>5.610502577319587</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2.985572064822785</v>
+        <v>1.191960953201263</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1</v>
+        <v>1.233741208208883</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.067693349128448</v>
+        <v>1.067746973838344</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.006927199826233</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>6.851161089778754</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4915,28 +4915,28 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>13.83109551418981</v>
+        <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>3.094408101578617</v>
+        <v>1.011294342223872</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v>1.170354446308725</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.050020498743338</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.543227313469321</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.005042504884102</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.00610514241684</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
@@ -4993,13 +4993,13 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.24454940005106</v>
+        <v>1.12492020623619</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.057226417565149</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5008,13 +5008,13 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.034728917516257</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>1.023038810900083</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>1</v>
@@ -5068,19 +5068,19 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>2.451971127151582</v>
+        <v>7.766513943504455</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.110830745341615</v>
+        <v>1.034067261241174</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>1.006226023520533</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.046180616226921</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>1</v>
@@ -5140,19 +5140,19 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v/>
+        <v>34.57006559332141</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>5.923520167627031</v>
+        <v>1.686514644495809</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.028983905199859</v>
+        <v>1.041874117863645</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>1.015987324798121</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.055518552736179</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>1</v>
@@ -5167,13 +5167,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.003352760665064</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.011358316200867</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5215,22 +5215,22 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5.610502577319587</v>
+        <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.191960953201263</v>
+        <v>1.082115731753006</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.233741208208883</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.067746973838344</v>
+        <v>1.043749213143648</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>3.462276099149629</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>1.053485576923077</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>1</v>
@@ -5257,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>6.851161089778754</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5293,16 +5293,16 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.011294342223872</v>
+        <v>1.577782968499733</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.170354446308725</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.053380707653914</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -5317,28 +5317,28 @@
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>1.017788664243982</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5365,31 +5365,31 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v/>
+        <v>4.04679641373278</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.12492020623619</v>
+        <v>1.293337296012104</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v>1.045770749336732</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.057226417565149</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.023038810900083</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
@@ -5440,16 +5440,16 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v/>
+        <v>19.90997229916898</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>7.766513943504455</v>
+        <v>1.076011594202898</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.034067261241174</v>
+        <v>1.10249337327328</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.006226023520533</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
@@ -5515,16 +5515,16 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>34.57006559332141</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.686514644495809</v>
+        <v>2.201878331500127</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.041874117863645</v>
+        <v>2.205041500153704</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.015987324798121</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
@@ -5593,19 +5593,19 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.082115731753006</v>
+        <v>1.533778397768035</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1</v>
+        <v>1.839212629117131</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.043749213143648</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.209423898837908</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>3.462276099149629</v>
+        <v>1.330286214953271</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.053485576923077</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.577782968499733</v>
+        <v>1.297071229416391</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.053380707653914</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
@@ -5692,13 +5692,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.017788664243982</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5740,13 +5740,13 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>4.04679641373278</v>
+        <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.293337296012104</v>
+        <v>1.099308547950697</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.045770749336732</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
@@ -5815,13 +5815,13 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>19.90997229916898</v>
+        <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.076011594202898</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.10249337327328</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
@@ -5890,10 +5890,10 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v/>
+        <v>3.762193178195729</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>2.201878331500127</v>
+        <v>1.103202846975089</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>1</v>
@@ -5968,19 +5968,19 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.533778397768035</v>
+        <v>1.030663077446703</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.839212629117131</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.209423898837908</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.330286214953271</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
@@ -6043,10 +6043,10 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.297071229416391</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v>1.781289279942539</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
@@ -6118,7 +6118,7 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1</v>
+        <v>1.056539748660223</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
@@ -6265,16 +6265,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>3.762193178195729</v>
+        <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.103202846975089</v>
+        <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6343,10 +6343,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.030663077446703</v>
+        <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6418,7 +6418,7 @@
         <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.02330380477888936</v>
+        <v>0.02791012788033979</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.09017410441895078</v>
+        <v>0.1620464460718041</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1480119805194816</v>
+        <v>0.9083904746403016</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.8217347691149118</v>
+        <v>1</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01678540484842399</v>
+        <v>0.01998536105952767</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.0373158038606505</v>
+        <v>0.106169880745298</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.09969176589135366</v>
+        <v>0.821119144209666</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.8422448248822167</v>
+        <v>1</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.09017410441895078</v>
+        <v>0.1620464460718041</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>15.07672657885018</v>
+        <v>15.39147197162465</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.363000899716244</v>
+        <v>3.762193178195729</v>
       </c>
       <c r="P2" s="22" t="n">
+        <v/>
+      </c>
+      <c r="Q2" s="22" t="n">
+        <v/>
+      </c>
+      <c r="R2" s="22" t="n">
+        <v>13.5799060123477</v>
+      </c>
+      <c r="S2" s="22" t="n">
         <v>3.762193178195729</v>
       </c>
-      <c r="Q2" s="22" t="n">
-        <v/>
-      </c>
-      <c r="R2" s="22" t="n">
-        <v>13.62177092932138</v>
-      </c>
-      <c r="S2" s="22" t="n">
-        <v>9.239653963699162</v>
-      </c>
       <c r="T2" s="22" t="n">
+        <v/>
+      </c>
+      <c r="U2" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V2" s="22" t="n">
         <v>3.762193178195729</v>
-      </c>
-      <c r="U2" s="22" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="22" t="n">
-        <v>6.363000899716244</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.351345092898217</v>
+        <v>0.4295779509947095</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5737779075488904</v>
+        <v>0.6096500339622035</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.5568496634016329</v>
+        <v>0.9083904746403016</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8217347691149118</v>
+        <v>1</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.2286469398011521</v>
+        <v>0.2713993248112193</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3447851150496798</v>
+        <v>0.3994316010698143</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3750596815587364</v>
+        <v>0.821119144209666</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.8422448248822167</v>
+        <v>1</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.5737779075488904</v>
+        <v>0.6096500339622035</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.957196775120368</v>
+        <v>1.637091301349755</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.232467433986028</v>
+        <v>1.132064840743516</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.130299667036626</v>
+        <v>1.04791939386727</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.046505263157895</v>
+        <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.985321201112125</v>
+        <v>1.58594178209719</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.26632012279784</v>
+        <v>1.124507094246348</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.07182285897303</v>
+        <v>1.018846582886741</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.044621974807264</v>
+        <v/>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.232467433986028</v>
+        <v>1.132064840743516</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6876514827747564</v>
+        <v>0.7032583268250905</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.707162585394653</v>
+        <v>0.6901633686067012</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.6294069891323228</v>
+        <v>0.9519199955798663</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4539376171566349</v>
+        <v>0.4304235288510792</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.4366083292285782</v>
+        <v>0.4491636690691835</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4019975401737992</v>
+        <v>0.8365944342209035</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.8798274522396597</v>
+        <v>1</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.707162585394653</v>
+        <v>0.6901633686067012</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.039435031584905</v>
+        <v>1.076302909589535</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.046940150609736</v>
+        <v>1.214277531020869</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.092725784917525</v>
+        <v>1.050508450965825</v>
       </c>
       <c r="Q4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.076539449328145</v>
+        <v>1.181781292918201</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.085779239132566</v>
+        <v>1.282554340921338</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.139868771519522</v>
+        <v>1.195322319985635</v>
       </c>
       <c r="U4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.046940150609736</v>
+        <v>1.214277531020869</v>
       </c>
     </row>
     <row r="5">
@@ -6902,41 +6902,41 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7147690407173858</v>
+        <v>0.756918983354913</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7403569036586483</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.6877692462321935</v>
+        <v>1</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.4886817524031341</v>
+        <v>0.5086664744280428</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.4740602595087463</v>
+        <v>0.5760768135488364</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.458224442271778</v>
+        <v>1</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8798274522396597</v>
+        <v>1</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7403569036586483</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.021929855676381</v>
+        <v>1.011899281935875</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.011303580431371</v>
+        <v>1</v>
       </c>
       <c r="P5" s="22" t="n">
         <v>1</v>
@@ -6945,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.015432490036879</v>
+        <v>1.010049260677147</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.005496880121859</v>
+        <v>1</v>
       </c>
       <c r="T5" s="22" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.011303580431371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7304438226222637</v>
+        <v>0.7659257757404689</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7487255874670744</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6877692462321935</v>
+        <v>1</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.4962233286783</v>
+        <v>0.5137781964272956</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.4766661119258031</v>
+        <v>0.5760768135488364</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.458224442271778</v>
+        <v>1</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8798274522396597</v>
+        <v>1</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7487255874670744</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.005935003723829</v>
+        <v>1.006473579936421</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.007598502772244</v>
+        <v>1.015735472090703</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.032383865417702</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.016753850485684</v>
+        <v>1.013831821394306</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.021900383874319</v>
+        <v>1.017451991569826</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.034903983139651</v>
+        <v>1</v>
       </c>
       <c r="U6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.007598502772244</v>
+        <v>1.015735472090703</v>
       </c>
     </row>
     <row r="7">
@@ -7030,62 +7030,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.7347790094295747</v>
+        <v>0.7708840574750898</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.7544147809190932</v>
+        <v>0.8512369815921914</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.7100418729406113</v>
+        <v>1</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8599497607985928</v>
+        <v>1</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.5045369801344848</v>
+        <v>0.5208846846765669</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.4871052827568572</v>
+        <v>0.5861305012424628</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.4742183004790082</v>
+        <v>1</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8798274522396597</v>
+        <v>1</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7544147809190932</v>
+        <v>0.8512369815921914</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.183558645253645</v>
+        <v>1.133081676452476</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.154521891567342</v>
+        <v>1.026274947143421</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.050063968905357</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.114639931879004</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.187887235766619</v>
+        <v>1.155142350783494</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.232713526175242</v>
+        <v>1.027523851246106</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.055047702492212</v>
+        <v>1</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.110095404984424</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.154521891567342</v>
+        <v>1.026274947143421</v>
       </c>
     </row>
     <row r="8">
@@ -7094,38 +7094,38 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8696540489612824</v>
+        <v>0.873474600194362</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.5993330386739907</v>
+        <v>0.6016959591444087</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.6004612707257934</v>
+        <v>0.602263069969466</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.500322928400139</v>
+        <v>1</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9766924119103988</v>
+        <v>1</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.000773596286007</v>
+        <v>1</v>
       </c>
       <c r="O8" s="22" t="n">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.002042877500956</v>
+        <v>1</v>
       </c>
       <c r="S8" s="22" t="n">
         <v>1</v>
@@ -7158,38 +7158,38 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8703268101036694</v>
+        <v>0.873474600194362</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.6005574026542775</v>
+        <v>0.6016959591444087</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.6004612707257934</v>
+        <v>0.602263069969466</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.500322928400139</v>
+        <v>1</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9766924119103988</v>
+        <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.001073162326571</v>
+        <v>1</v>
       </c>
       <c r="O9" s="22" t="n">
         <v>1</v>
@@ -7201,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.000315156555256</v>
+        <v>1</v>
       </c>
       <c r="S9" s="22" t="n">
         <v>1</v>
@@ -7222,41 +7222,41 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8712608120480773</v>
+        <v>0.873474600194362</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.6007466722565318</v>
+        <v>0.6016959591444087</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.6004612707257934</v>
+        <v>0.602263069969466</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.500322928400139</v>
+        <v>1</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9766924119103988</v>
+        <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000830590584314</v>
+        <v>1.000399043439955</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000394381407814</v>
+        <v>1</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
@@ -7265,10 +7265,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.001997734048421</v>
+        <v>1.001535920726672</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.00191990090834</v>
+        <v>1</v>
       </c>
       <c r="T10" s="22" t="n">
         <v>1</v>
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000394381407814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7286,62 +7286,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8719844730750465</v>
+        <v>0.8738231545035364</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8713318815165255</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.7455893871890115</v>
+        <v>1</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9585343427959093</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.6019468043381743</v>
+        <v>0.6026201164392133</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.601614096864883</v>
+        <v>0.602263069969466</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.500322928400139</v>
+        <v>1</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9766924119103988</v>
+        <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8713318815165255</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.000428391631181</v>
+        <v>1.001891214403535</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.00061534187589</v>
+        <v>1.001961509217073</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.000789561392408</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.005866539536239</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.00127061887457</v>
+        <v>1.001510101779218</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.001482388686999</v>
+        <v>1.001761785409087</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.002964777373997</v>
+        <v>1</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.005929554747994</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.00061534187589</v>
+        <v>1.001961509217073</v>
       </c>
     </row>
     <row r="12">
@@ -7350,47 +7350,47 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.8723580239258315</v>
+        <v>0.8754757414394762</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.8718680485110205</v>
+        <v>0.8753167689959469</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.7461780757837254</v>
+        <v>1</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.964157622414764</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.6027116493092535</v>
+        <v>0.6035301341492405</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.6025059227960143</v>
+        <v>0.6033241282585702</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.5018062744979517</v>
+        <v>1</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9824837630387717</v>
+        <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8718680485110205</v>
+        <v>0.8753167689959469</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.006086441141607</v>
+        <v>1.008981096699984</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.00665184507191</v>
+        <v>1.009164344863505</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.011199592941028</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.037174811205109</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.004114275147929</v>
@@ -7399,13 +7399,13 @@
         <v>1.004457131410256</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.008914262820513</v>
+        <v>1</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.017828525641026</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.00665184507191</v>
+        <v>1.009164344863505</v>
       </c>
     </row>
     <row r="13">
@@ -7414,41 +7414,41 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.6051913708693739</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.6051913708693739</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.5062795075138088</v>
+        <v>1</v>
       </c>
       <c r="I13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000281796833573</v>
+        <v>1</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000281796833573</v>
+        <v>1</v>
       </c>
       <c r="P13" s="22" t="n">
         <v>1</v>
@@ -7457,10 +7457,10 @@
         <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.000946526350072</v>
+        <v>1</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.000946526350072</v>
+        <v>1</v>
       </c>
       <c r="T13" s="22" t="n">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000281796833573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7478,31 +7478,31 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.6057642004487382</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.6057642004487382</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.5062795075138088</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7542,31 +7542,31 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.6057642004487382</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.6057642004487382</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.5062795075138088</v>
+        <v>1</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7606,62 +7606,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.754534966494023</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.6057642004487382</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.6057642004487382</v>
+        <v>0.606013223181197</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.5062795075138088</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.139062562734011</v>
+        <v>1.132068883828083</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.139062562734011</v>
+        <v>1.132068883828083</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.325319626533069</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.650807359132844</v>
+        <v>1.650129009975417</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.650807359132844</v>
+        <v>1.650129009975417</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.975193514963125</v>
+        <v>1</v>
       </c>
       <c r="U16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.139062562734011</v>
+        <v>1.132068883828083</v>
       </c>
     </row>
     <row r="17">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>5103.57</v>
+        <v>4565.93</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v/>
+        <v>31.04</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>534.38</v>
+        <v>174.15</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1595.43</v>
+        <v>207.58</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1595.43</v>
+        <v>256.1</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>1703.43</v>
+        <v>273.45</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>1703.43</v>
+        <v>273.45</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>1703.43</v>
+        <v>273.45</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>1703.43</v>
+        <v>273.45</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>1703.43</v>
+        <v>273.45</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>1715.23</v>
+        <v>273.45</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>1715.23</v>
+        <v>273.45</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>1715.23</v>
+        <v>273.45</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>1715.23</v>
+        <v>273.45</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>1715.23</v>
+        <v>273.45</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>1715.23</v>
+        <v>273.45</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>1715.23</v>
+        <v>1873.45</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>5120.06</v>
+        <v>4929.56</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>65.54000000000001</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>906.49</v>
+        <v>188.59</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>2805.05</v>
+        <v>190.72</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>2805.05</v>
+        <v>223.21</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>2945.36</v>
+        <v>223.21</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>2945.36</v>
+        <v>223.21</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>4545.360000000001</v>
+        <v>223.21</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>4545.360000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>4568.280000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>4596.170000000001</v>
+        <v>223.21</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>5134.25</v>
+        <v>3838.67</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8869,67 +8869,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>391.7</v>
+        <v>203.65</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>487.49</v>
+        <v>229.09</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>487.49</v>
+        <v>229.09</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>487.49</v>
+        <v>242.2</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>487.49</v>
+        <v>242.2</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>487.49</v>
+        <v>242.2</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>504.42</v>
+        <v>242.2</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>504.42</v>
+        <v>242.2</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>504.42</v>
+        <v>247.78</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>4874.900000000001</v>
+        <v>3838.67</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8996,64 +8996,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>504.28</v>
+        <v>277.19</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1236.48</v>
+        <v>2152.8</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1373.52</v>
+        <v>2226.14</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>1373.52</v>
+        <v>2240</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>1373.52</v>
+        <v>2240</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>1436.95</v>
+        <v>2240</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>4551.74</v>
+        <v>3838.67</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v/>
+        <v>83.84999999999999</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>76.36</v>
+        <v>2898.7</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>452.3200000000001</v>
+        <v>4888.7</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>465.4300000000001</v>
+        <v>5093.41</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>465.4300000000001</v>
+        <v>5174.84</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>491.27</v>
+        <v>5174.84</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>491.27</v>
+        <v>5174.84</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>491.27</v>
+        <v>5174.84</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>491.27</v>
+        <v>5174.84</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>491.27</v>
+        <v>5174.84</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>491.27</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>491.27</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>496.85</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>1873.45</v>
+        <v>2419.14</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>4565.93</v>
+        <v>3838.67</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>31.04</v>
+        <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>174.15</v>
+        <v>587.22</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>207.58</v>
+        <v>635.4400000000001</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>256.1</v>
+        <v>635.4400000000001</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>273.45</v>
+        <v>663.24</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>273.45</v>
+        <v>663.24</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>273.45</v>
+        <v>2296.32</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>273.45</v>
+        <v>2296.32</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>273.45</v>
+        <v>2296.32</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>273.45</v>
+        <v>2296.32</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>273.45</v>
+        <v>2296.32</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>273.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>273.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>273.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>273.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>1873.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>1873.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>1873.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>1873.45</v>
+        <v>2419.14</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4929.56</v>
+        <v>3579.32</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9377,55 +9377,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>188.59</v>
+        <v>299.68</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>190.72</v>
+        <v>472.83</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>223.21</v>
+        <v>472.83</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>223.21</v>
+        <v>472.83</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>223.21</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>223.21</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>223.21</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>223.21</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>223.21</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>223.21</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>3838.67</v>
+        <v>4082.9</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v/>
+        <v>91.45999999999999</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>203.65</v>
+        <v>370.12</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>229.09</v>
+        <v>478.69</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>229.09</v>
+        <v>500.6</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>242.2</v>
+        <v>500.6</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>242.2</v>
+        <v>500.6</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>242.2</v>
+        <v>500.6</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>242.2</v>
+        <v>500.6</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>242.2</v>
+        <v>500.6</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>247.78</v>
+        <v>500.6</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>3838.67</v>
+        <v>3327.53</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v/>
+        <v>21.66</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>277.19</v>
+        <v>431.2500000000001</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2152.8</v>
+        <v>464.0300000000001</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>2226.14</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>2240</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>3838.67</v>
+        <v>3586.88</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9755,49 +9755,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>83.84999999999999</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>2898.7</v>
+        <v>118.19</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>4888.7</v>
+        <v>260.24</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>5093.41</v>
+        <v>573.84</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>5174.84</v>
+        <v>573.84</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>2419.14</v>
+        <v>455.49</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>3838.67</v>
+        <v>3068.18</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9885,43 +9885,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>587.22</v>
+        <v>100.36</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>635.4400000000001</v>
+        <v>153.93</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>635.4400000000001</v>
+        <v>283.11</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>663.24</v>
+        <v>283.11</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>663.24</v>
+        <v>342.4</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>2296.32</v>
+        <v>455.49</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>2296.32</v>
+        <v>455.49</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>2296.32</v>
+        <v>455.49</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>2296.32</v>
+        <v>455.49</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>2296.32</v>
+        <v>455.49</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>2419.14</v>
+        <v>455.49</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>2419.14</v>
+        <v>455.49</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>2419.14</v>
+        <v>455.49</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>506.9300000000001</v>
+        <v>544.29</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>3579.32</v>
+        <v>2776.53</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10015,40 +10015,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>299.68</v>
+        <v>419.63</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>472.83</v>
+        <v>544.29</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>472.83</v>
+        <v>544.29</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>472.83</v>
+        <v>544.29</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>544.29</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>544.29</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>544.29</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>544.29</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>544.29</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>544.29</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>544.29</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>544.29</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>4082.9</v>
+        <v>2776.53</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>91.45999999999999</v>
+        <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>370.12</v>
+        <v>99.78999999999999</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>478.69</v>
+        <v>109.7</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>500.6</v>
+        <v>109.7</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>3327.53</v>
+        <v>2776.53</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>21.66</v>
+        <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>431.2500000000001</v>
+        <v>209.64</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>464.0300000000001</v>
+        <v>209.64</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>209.64</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>3586.88</v>
+        <v>2776.53</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>31.37</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>118.19</v>
+        <v>118.02</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>260.24</v>
+        <v>130.2</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>455.49</v>
+        <v>333.1</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>3068.18</v>
+        <v>2776.53</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10559,28 +10559,28 @@
         <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>100.36</v>
+        <v>323.19</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>153.93</v>
+        <v>333.1</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>283.11</v>
+        <v>333.1</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>283.11</v>
+        <v>333.1</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>342.4</v>
+        <v>333.1</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>455.49</v>
+        <v>333.1</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>455.49</v>
+        <v>333.1</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>455.49</v>
+        <v>333.1</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>544.29</v>
+        <v>99.2</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>419.63</v>
+        <v>55.69</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>544.29</v>
+        <v>55.69</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>544.29</v>
+        <v>99.2</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>544.29</v>
+        <v>99.2</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>544.29</v>
+        <v>99.2</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>544.29</v>
+        <v>99.2</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>544.29</v>
+        <v>99.2</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>99.78999999999999</v>
+        <v>451.47</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10835,22 +10835,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>427.31</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>451.47</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>451.47</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>451.47</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>451.47</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>451.47</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>131.83</v>
+        <v>21.18</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10973,19 +10973,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>131.83</v>
+        <v>21.18</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>131.83</v>
+        <v>21.18</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>131.83</v>
+        <v>21.18</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>131.83</v>
+        <v>21.18</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>131.83</v>
+        <v>21.18</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>130.2</v>
+        <v/>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11064,8 +11064,9 @@
         <f>D27</f>
         <v/>
       </c>
-      <c r="F27" s="20" t="n">
-        <v>0</v>
+      <c r="F27" s="20">
+        <f>ROUND(+I27*J27/100,0)-D27-B27</f>
+        <v/>
       </c>
       <c r="G27" s="14">
         <f>B27+D27+F27</f>
@@ -11107,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>31.37</v>
+        <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>118.02</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>130.2</v>
+        <v/>
       </c>
       <c r="V27" s="22" t="n">
-        <v>130.2</v>
+        <v/>
       </c>
       <c r="W27" s="22" t="n">
-        <v>130.2</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11187,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>333.1</v>
+        <v/>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11201,8 +11202,9 @@
         <f>D28</f>
         <v/>
       </c>
-      <c r="F28" s="20" t="n">
-        <v>0</v>
+      <c r="F28" s="20">
+        <f>ROUND(+I28*J28/100,0)-D28-B28</f>
+        <v/>
       </c>
       <c r="G28" s="14">
         <f>B28+D28+F28</f>
@@ -11247,13 +11249,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>323.19</v>
+        <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>333.1</v>
+        <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>333.1</v>
+        <v/>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11324,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>33.79</v>
+        <v/>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11385,10 +11387,10 @@
         <v/>
       </c>
       <c r="T29" s="22" t="n">
-        <v>33.79</v>
+        <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v>33.79</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11627,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>2776.53</v>
+        <v/>
       </c>
       <c r="J31" s="20" t="n">
         <v>80</v>

--- a/Process Results/Unified_IBNP_MS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_MS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1</v>
+        <v>0.9957171004418933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9083904746403016</v>
+        <v>0.9314468869052758</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1620464460718041</v>
+        <v>0.2278814025977461</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1620464460718041</v>
+        <v>0.2278814025977461</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1</v>
+        <v>0.9957171004418933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9083904746403016</v>
+        <v>0.9314468869052758</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6096500339622035</v>
+        <v>0.8573338582909146</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6096500339622035</v>
+        <v>0.8573338582909146</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3813,17 +3813,17 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9519199955798663</v>
+        <v>0.948732139641226</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6901633686067012</v>
+        <v>0.900948144889942</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6901633686067012</v>
+        <v>0.900948144889942</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3851,17 +3851,17 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1</v>
+        <v>0.9623655365174466</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3889,17 +3889,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.9623655365174466</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3927,17 +3927,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8512369815921914</v>
+        <v>0.9580381273351128</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8512369815921914</v>
+        <v>0.9580381273351128</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3965,17 +3965,17 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4003,17 +4003,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4041,17 +4041,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4082,14 +4082,14 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9889805921347967</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9889805921347967</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4120,14 +4120,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8753167689959469</v>
+        <v>0.9909326750011443</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8753167689959469</v>
+        <v>0.9909326750011443</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4158,14 +4158,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4196,14 +4196,14 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4234,14 +4234,14 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4272,14 +4272,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4840,16 +4840,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>5.610502577319587</v>
+        <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.191960953201263</v>
+        <v>1.011294342223872</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.233741208208883</v>
+        <v>1.170354446308725</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.067746973838344</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>6.851161089778754</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4918,28 +4918,28 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.011294342223872</v>
+        <v>1.12492020623619</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.170354446308725</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v>1.057226417565149</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.023038810900083</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -4993,28 +4993,28 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.12492020623619</v>
+        <v>7.766513943504457</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1</v>
+        <v>1.034067261241174</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.057226417565149</v>
+        <v>1.006226023520533</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.023038810900083</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>1</v>
@@ -5065,16 +5065,16 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v/>
+        <v>34.57006559332141</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>7.766513943504455</v>
+        <v>1.686514644495809</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.034067261241174</v>
+        <v>1.041874117863645</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.006226023520533</v>
+        <v>1.015987324798121</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.003352760665064</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>1</v>
@@ -5140,22 +5140,22 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>34.57006559332141</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.686514644495809</v>
+        <v>1.082115731753006</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.041874117863645</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.015987324798121</v>
+        <v>1.043749213143648</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>3.462276099149629</v>
       </c>
       <c r="H42" s="4" t="n">
         <v>1</v>
@@ -5167,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.003352760665064</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>1.053485576923077</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>1</v>
@@ -5218,19 +5218,19 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.082115731753006</v>
+        <v>1.577782968499733</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.043749213143648</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.053380707653914</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>3.462276099149629</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>1</v>
@@ -5242,31 +5242,31 @@
         <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.017788664243982</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.053485576923077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5290,19 +5290,19 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v/>
+        <v>4.04679641373278</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.577782968499733</v>
+        <v>1.293337296012104</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v>1.045770749336732</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.053380707653914</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -5317,28 +5317,28 @@
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.017788664243982</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5365,13 +5365,13 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4.04679641373278</v>
+        <v>19.90997229916898</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.293337296012104</v>
+        <v>1.076011594202898</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.045770749336732</v>
+        <v>1.10249337327328</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
@@ -5440,13 +5440,13 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>19.90997229916898</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.076011594202898</v>
+        <v>2.201878331500127</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.10249337327328</v>
+        <v>2.205041500153704</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
@@ -5518,19 +5518,19 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2.201878331500127</v>
+        <v>1.533778397768035</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>2.205041500153704</v>
+        <v>1.839212629117131</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.209423898837908</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.330286214953271</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
@@ -5593,19 +5593,19 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.533778397768035</v>
+        <v>1.297071229416391</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.839212629117131</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.209423898837908</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.330286214953271</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>1.062742288118466</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.297071229416391</v>
+        <v>1.099308547950697</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>1</v>
@@ -5743,7 +5743,7 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.099308547950697</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -5815,10 +5815,10 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v/>
+        <v>3.762193178195729</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1</v>
+        <v>1.103202846975089</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
@@ -5890,10 +5890,10 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>3.762193178195729</v>
+        <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.103202846975089</v>
+        <v>1.030663077446703</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>1.07478234764335</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -5968,10 +5968,10 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.030663077446703</v>
+        <v>1</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1</v>
+        <v>1.781289279942539</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
@@ -6043,10 +6043,10 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v>1.056539748660223</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.781289279942539</v>
+        <v>1</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
@@ -6118,19 +6118,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.056539748660223</v>
+        <v>1.955146364494806</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6193,16 +6193,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6268,13 +6268,13 @@
         <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v/>
+        <v>1.083425933840499</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6343,10 +6343,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6711,37 +6711,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.02791012788033979</v>
+        <v>0.03238394951859185</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1620464460718041</v>
+        <v>0.2278814025977461</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.9083904746403016</v>
+        <v>0.9314468869052758</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>1</v>
+        <v>0.9957171004418933</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01998536105952767</v>
+        <v>0.02963472417387155</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.106169880745298</v>
+        <v>0.1917686450126037</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.821119144209666</v>
+        <v>0.7094633422158121</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>1</v>
+        <v>0.9599573315828341</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1620464460718041</v>
+        <v>0.2278814025977461</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>15.39147197162465</v>
+        <v>16.72107383726022</v>
       </c>
       <c r="O2" s="22" t="n">
         <v>3.762193178195729</v>
@@ -6753,7 +6753,7 @@
         <v/>
       </c>
       <c r="R2" s="22" t="n">
-        <v>13.5799060123477</v>
+        <v>15.57225687110472</v>
       </c>
       <c r="S2" s="22" t="n">
         <v>3.762193178195729</v>
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4295779509947095</v>
+        <v>0.5414944110424819</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.6096500339622035</v>
+        <v>0.8573338582909146</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.9083904746403016</v>
+        <v>0.9314468869052758</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>1</v>
+        <v>0.9957171004418933</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.2713993248112193</v>
+        <v>0.4614795371398644</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3994316010698143</v>
+        <v>0.7214706880582562</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.821119144209666</v>
+        <v>0.7094633422158121</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>1</v>
+        <v>0.9599573315828341</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.6096500339622035</v>
+        <v>0.8573338582909146</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.637091301349755</v>
+        <v>1.484706119631392</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.132064840743516</v>
+        <v>1.050871998320435</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.04791939386727</v>
+        <v>1.018557421769244</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v/>
+        <v>1.004301321686859</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.58594178209719</v>
+        <v>1.570452628808602</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.124507094246348</v>
+        <v>1.147759795344037</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.018846582886741</v>
+        <v>1.219022409399106</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v/>
+        <v>1.04171296692025</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.132064840743516</v>
+        <v>1.050871998320435</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.7032583268250905</v>
+        <v>0.8039600658209691</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6901633686067012</v>
+        <v>0.900948144889942</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9519199955798663</v>
+        <v>0.948732139641226</v>
       </c>
       <c r="E4" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4304235288510792</v>
+        <v>0.7247317522426769</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.4491636690691835</v>
+        <v>0.8280750492724659</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.8365944342209035</v>
+        <v>0.8648517128082615</v>
       </c>
       <c r="I4" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6901633686067012</v>
+        <v>0.900948144889942</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.076302909589535</v>
+        <v>1.060660126137771</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.214277531020869</v>
+        <v>1.03830176082969</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.050508450965825</v>
+        <v>1.014370122299616</v>
       </c>
       <c r="Q4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.181781292918201</v>
+        <v>1.153338255106521</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.282554340921338</v>
+        <v>1.135041825754972</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.195322319985635</v>
+        <v>1.130214879990423</v>
       </c>
       <c r="U4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.214277531020869</v>
+        <v>1.03830176082969</v>
       </c>
     </row>
     <row r="5">
@@ -6902,38 +6902,38 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.756918983354913</v>
+        <v>0.8527283848234001</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>1</v>
+        <v>0.9623655365174466</v>
       </c>
       <c r="E5" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5086664744280428</v>
+        <v>0.8358608545518602</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.5760768135488364</v>
+        <v>0.9398998157883582</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>1</v>
+        <v>0.9774682748011012</v>
       </c>
       <c r="I5" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.011899281935875</v>
+        <v>1.010480607413529</v>
       </c>
       <c r="O5" s="22" t="n">
         <v>1</v>
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.010049260677147</v>
+        <v>1.006159448951373</v>
       </c>
       <c r="S5" s="22" t="n">
         <v>1</v>
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7659257757404689</v>
+        <v>0.8616654962551068</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>1</v>
+        <v>0.9623655365174466</v>
       </c>
       <c r="E6" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5137781964272956</v>
+        <v>0.8410092968159231</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.5760768135488364</v>
+        <v>0.9398998157883582</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>1</v>
+        <v>0.9774682748011012</v>
       </c>
       <c r="I6" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.006473579936421</v>
+        <v>1.008415302563345</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.015735472090703</v>
+        <v>1.024140185093866</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1</v>
+        <v>1.019836119096346</v>
       </c>
       <c r="Q6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.013831821394306</v>
+        <v>1.017767734428167</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.017451991569826</v>
+        <v>1.023683853873438</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1</v>
+        <v>1.012463724607225</v>
       </c>
       <c r="U6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.015735472090703</v>
+        <v>1.024140185093866</v>
       </c>
     </row>
     <row r="7">
@@ -7030,41 +7030,41 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.7708840574750898</v>
+        <v>0.8689166721144886</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8512369815921914</v>
+        <v>0.9580381273351128</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="E7" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.5208846846765669</v>
+        <v>0.855952126653368</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.5861305012424628</v>
+        <v>0.9621602656811611</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>1</v>
+        <v>0.9896511701905215</v>
       </c>
       <c r="I7" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8512369815921914</v>
+        <v>0.9580381273351128</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.133081676452476</v>
+        <v>1.135216212595566</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.026274947143421</v>
+        <v>1.029204488230661</v>
       </c>
       <c r="P7" s="22" t="n">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.026274947143421</v>
+        <v>1.029204488230661</v>
       </c>
     </row>
     <row r="8">
@@ -7094,31 +7094,31 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.873474600194362</v>
+        <v>0.9864082935789528</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="E8" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.6016959591444087</v>
+        <v>0.9887465517405026</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.602263069969466</v>
+        <v>0.9886426217086832</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>1</v>
+        <v>0.9896511701905215</v>
       </c>
       <c r="I8" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
@@ -7158,31 +7158,31 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.873474600194362</v>
+        <v>0.9864082935789528</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="E9" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.6016959591444087</v>
+        <v>0.9887465517405026</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.602263069969466</v>
+        <v>0.9886426217086832</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>1</v>
+        <v>0.9896511701905215</v>
       </c>
       <c r="I9" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
@@ -7222,62 +7222,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.873474600194362</v>
+        <v>0.9864082935789528</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>1</v>
+        <v>0.9814551339140257</v>
       </c>
       <c r="E10" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.6016959591444087</v>
+        <v>0.9887465517405026</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.602263069969466</v>
+        <v>0.9886426217086832</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>1</v>
+        <v>0.9896511701905215</v>
       </c>
       <c r="I10" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000399043439955</v>
+        <v>1.002824139891953</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1</v>
+        <v>1.003005476744299</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1</v>
+        <v>1.018895276457537</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.001535920726672</v>
+        <v>1.00571873993457</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1</v>
+        <v>1.005228524009872</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1</v>
+        <v>1.010457048019744</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1</v>
+        <v>1.003005476744299</v>
       </c>
     </row>
     <row r="11">
@@ -7286,10 +7286,10 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8738231545035364</v>
+        <v>0.9891940485906027</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9889805921347967</v>
       </c>
       <c r="D11" s="34" t="n">
         <v>1</v>
@@ -7298,10 +7298,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.6026201164392133</v>
+        <v>0.9944009361311095</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.602263069969466</v>
+        <v>0.99381176339347</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>1</v>
@@ -7310,17 +7310,17 @@
         <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9889805921347967</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.001891214403535</v>
+        <v>1.001906220635766</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.001961509217073</v>
+        <v>1.00197383334099</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.001961509217073</v>
+        <v>1.00197383334099</v>
       </c>
     </row>
     <row r="12">
@@ -7350,10 +7350,10 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.8754757414394762</v>
+        <v>0.9910796706988027</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.8753167689959469</v>
+        <v>0.9909326750011443</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -7362,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.6035301341492405</v>
+        <v>0.9959025827540168</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.6033241282585702</v>
+        <v>0.9955626464575958</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>1</v>
@@ -7374,17 +7374,17 @@
         <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8753167689959469</v>
+        <v>0.9909326750011443</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.008981096699984</v>
+        <v>1.009000617775671</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.009164344863505</v>
+        <v>1.009150293685537</v>
       </c>
       <c r="P12" s="22" t="n">
         <v>1</v>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.009164344863505</v>
+        <v>1.009150293685537</v>
       </c>
     </row>
     <row r="13">
@@ -7414,10 +7414,10 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="D13" s="34" t="n">
         <v>1</v>
@@ -7426,10 +7426,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>1</v>
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7478,10 +7478,10 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="D14" s="34" t="n">
         <v>1</v>
@@ -7490,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7542,10 +7542,10 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="D15" s="34" t="n">
         <v>1</v>
@@ -7554,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>1</v>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7606,10 +7606,10 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="D16" s="34" t="n">
         <v>1</v>
@@ -7618,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.606013223181197</v>
+        <v>1</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>1</v>
@@ -7630,17 +7630,17 @@
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.132068883828083</v>
+        <v>1</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.132068883828083</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7649,10 +7649,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.650129009975417</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.650129009975417</v>
+        <v>1</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.132068883828083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>4565.93</v>
+        <v>4929.56</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>31.04</v>
+        <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>174.15</v>
+        <v>188.59</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>207.58</v>
+        <v>190.72</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>256.1</v>
+        <v>223.21</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>273.45</v>
+        <v>223.21</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>1873.45</v>
+        <v>223.21</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4929.56</v>
+        <v>3838.67</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8742,70 +8742,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>188.59</v>
+        <v>203.65</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>190.72</v>
+        <v>229.09</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>223.21</v>
+        <v>229.09</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>223.21</v>
+        <v>242.2</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>223.21</v>
+        <v>242.2</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>223.21</v>
+        <v>242.2</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>223.21</v>
+        <v>242.2</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>223.21</v>
+        <v>242.2</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>223.21</v>
+        <v>247.78</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8869,67 +8869,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>203.65</v>
+        <v>277.19</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>229.09</v>
+        <v>2152.8</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>229.09</v>
+        <v>2226.14</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>242.2</v>
+        <v>2240</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>242.2</v>
+        <v>2240</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>242.2</v>
+        <v>2240</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>242.2</v>
+        <v>2240</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>242.2</v>
+        <v>2240</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>247.78</v>
+        <v>2240</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v/>
+        <v>83.84999999999999</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>277.19</v>
+        <v>2898.7</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>2152.8</v>
+        <v>4888.7</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>2226.14</v>
+        <v>5093.41</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>2240</v>
+        <v>5174.84</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>2240</v>
+        <v>5174.84</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>2240</v>
+        <v>5174.84</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>2240</v>
+        <v>5174.84</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>2240</v>
+        <v>5174.84</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>2240</v>
+        <v>5174.84</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>2240</v>
+        <v>5192.190000000001</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>83.84999999999999</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>2898.7</v>
+        <v>587.22</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>4888.7</v>
+        <v>635.4400000000001</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>5093.41</v>
+        <v>635.4400000000001</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>5174.84</v>
+        <v>663.24</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>5174.84</v>
+        <v>663.24</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>5174.84</v>
+        <v>2296.32</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>5174.84</v>
+        <v>2296.32</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>5174.84</v>
+        <v>2296.32</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>5174.84</v>
+        <v>2296.32</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2296.32</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>5192.190000000001</v>
+        <v>2419.14</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>3838.67</v>
+        <v>3579.32</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9250,58 +9250,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>587.22</v>
+        <v>299.68</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>635.4400000000001</v>
+        <v>472.83</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>635.4400000000001</v>
+        <v>472.83</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>663.24</v>
+        <v>472.83</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>663.24</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>2296.32</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>2296.32</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>2296.32</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>2296.32</v>
+        <v>498.0700000000001</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>2296.32</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>2419.14</v>
+        <v>506.9300000000001</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>3579.32</v>
+        <v>4082.9</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v/>
+        <v>91.45999999999999</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>299.68</v>
+        <v>370.12</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>472.83</v>
+        <v>478.69</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>472.83</v>
+        <v>500.6</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>472.83</v>
+        <v>500.6</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>500.6</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>500.6</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>498.0700000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>506.9300000000001</v>
+        <v>500.6</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>4082.9</v>
+        <v>3327.53</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>91.45999999999999</v>
+        <v>21.66</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>370.12</v>
+        <v>431.2500000000001</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>478.69</v>
+        <v>464.0300000000001</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>500.6</v>
+        <v>511.5900000000001</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>3327.53</v>
+        <v>3586.88</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>21.66</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>431.2500000000001</v>
+        <v>118.19</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>464.0300000000001</v>
+        <v>260.24</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>511.5900000000001</v>
+        <v>573.84</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>3586.88</v>
+        <v>3068.18</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>118.19</v>
+        <v>100.36</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>260.24</v>
+        <v>153.93</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>573.84</v>
+        <v>283.11</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>573.84</v>
+        <v>283.11</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>573.84</v>
+        <v>342.4</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>573.84</v>
+        <v>455.49</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>455.49</v>
+        <v>578.4399999999999</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>3068.18</v>
+        <v>2776.53</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9885,43 +9885,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>100.36</v>
+        <v>419.63</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>153.93</v>
+        <v>544.29</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>283.11</v>
+        <v>544.29</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>283.11</v>
+        <v>544.29</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>342.4</v>
+        <v>544.29</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>455.49</v>
+        <v>544.29</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>455.49</v>
+        <v>544.29</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>455.49</v>
+        <v>544.29</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>455.49</v>
+        <v>578.4399999999999</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>455.49</v>
+        <v>578.4399999999999</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>455.49</v>
+        <v>578.4399999999999</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>455.49</v>
+        <v>578.4399999999999</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>455.49</v>
+        <v>578.4399999999999</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -10015,40 +10015,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>419.63</v>
+        <v>99.78999999999999</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>544.29</v>
+        <v>109.7</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10151,37 +10151,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>99.78999999999999</v>
+        <v>209.64</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>109.7</v>
+        <v>209.64</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v/>
+        <v>31.37</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>209.64</v>
+        <v>118.02</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>209.64</v>
+        <v>130.2</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>130.2</v>
+        <v>358.01</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>31.37</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>118.02</v>
+        <v>323.19</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>130.2</v>
+        <v>333.1</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>130.2</v>
+        <v>333.1</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>130.2</v>
+        <v>333.1</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>130.2</v>
+        <v>358.01</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>130.2</v>
+        <v>358.01</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>130.2</v>
+        <v>358.01</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>130.2</v>
+        <v>358.01</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>130.2</v>
+        <v>358.01</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10559,28 +10559,28 @@
         <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>323.19</v>
+        <v>55.69</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>333.1</v>
+        <v>55.69</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>333.1</v>
+        <v>99.2</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>99.2</v>
+        <v>451.47</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>55.69</v>
+        <v>427.31</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>55.69</v>
+        <v>451.47</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>99.2</v>
+        <v>451.47</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>99.2</v>
+        <v>451.47</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>99.2</v>
+        <v>451.47</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>99.2</v>
+        <v>451.47</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>99.2</v>
+        <v>451.47</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>451.47</v>
+        <v>41.41</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10835,22 +10835,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>427.31</v>
+        <v>21.18</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>451.47</v>
+        <v>41.41</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>451.47</v>
+        <v>41.41</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>451.47</v>
+        <v>41.41</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>451.47</v>
+        <v>41.41</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>451.47</v>
+        <v>41.41</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>21.18</v>
+        <v>200.41</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10973,19 +10973,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>21.18</v>
+        <v>200.41</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>21.18</v>
+        <v>200.41</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>21.18</v>
+        <v>200.41</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>21.18</v>
+        <v>200.41</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>21.18</v>
+        <v>200.41</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v/>
+        <v>126.75</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11111,16 +11111,16 @@
         <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v/>
+        <v>116.99</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v/>
+        <v>126.75</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v/>
+        <v>126.75</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v/>
+        <v>126.75</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v/>
+        <v>2152.08</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11249,13 +11249,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v/>
+        <v>2152.08</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v/>
+        <v>2152.08</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v/>
+        <v>2152.08</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
